--- a/Data/Inputs/Articulos .xlsx
+++ b/Data/Inputs/Articulos .xlsx
@@ -24,7 +24,7 @@
     <t>Lenovo Laptop IdeaPad 3</t>
   </si>
   <si>
-    <t>Lenovo Smart Tab M8 8''</t>
+    <t>Lenovo Smart Tab M8</t>
   </si>
   <si>
     <t>ADATA Memoria RAM DIMM XPG SPECTRIX D60G RGB 16GB DDR4 3200Mhz, Gris TUSTENO, Pequeño</t>
@@ -87,12 +87,15 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -309,7 +312,7 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="23.14"/>
+    <col customWidth="1" min="1" max="1" width="10.86"/>
     <col customWidth="1" min="2" max="26" width="10.71"/>
   </cols>
   <sheetData>
@@ -324,7 +327,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
